--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3502,28 +3502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9576.453596916199</v>
+        <v>9794.901742648686</v>
       </c>
       <c r="AB2" t="n">
-        <v>13102.92629461681</v>
+        <v>13401.81668486004</v>
       </c>
       <c r="AC2" t="n">
-        <v>11852.40139913065</v>
+        <v>12122.76611002434</v>
       </c>
       <c r="AD2" t="n">
-        <v>9576453.596916199</v>
+        <v>9794901.742648685</v>
       </c>
       <c r="AE2" t="n">
-        <v>13102926.29461681</v>
+        <v>13401816.68486004</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.194944463467071e-07</v>
+        <v>8.782311368900198e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.99861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>11852401.39913065</v>
+        <v>12122766.11002434</v>
       </c>
     </row>
     <row r="3">
@@ -3608,28 +3608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3163.130496820432</v>
+        <v>3277.604482216249</v>
       </c>
       <c r="AB3" t="n">
-        <v>4327.934693218715</v>
+        <v>4484.56305027309</v>
       </c>
       <c r="AC3" t="n">
-        <v>3914.88268039225</v>
+        <v>4056.562646878629</v>
       </c>
       <c r="AD3" t="n">
-        <v>3163130.496820432</v>
+        <v>3277604.482216249</v>
       </c>
       <c r="AE3" t="n">
-        <v>4327934.693218715</v>
+        <v>4484563.05027309</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.803433528362461e-07</v>
+        <v>1.657319078882598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3914882.68039225</v>
+        <v>4056562.646878629</v>
       </c>
     </row>
     <row r="4">
@@ -3714,28 +3714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2412.834110072119</v>
+        <v>2506.564467913347</v>
       </c>
       <c r="AB4" t="n">
-        <v>3301.346076129165</v>
+        <v>3429.592086819088</v>
       </c>
       <c r="AC4" t="n">
-        <v>2986.270240091591</v>
+        <v>3102.27663151567</v>
       </c>
       <c r="AD4" t="n">
-        <v>2412834.110072119</v>
+        <v>2506564.467913347</v>
       </c>
       <c r="AE4" t="n">
-        <v>3301346.076129165</v>
+        <v>3429592.086819088</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.148548097749965e-06</v>
+        <v>1.941677545839687e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.64166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2986270.240091592</v>
+        <v>3102276.63151567</v>
       </c>
     </row>
     <row r="5">
@@ -3820,28 +3820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2108.803188609012</v>
+        <v>2192.033810899638</v>
       </c>
       <c r="AB5" t="n">
-        <v>2885.357556485532</v>
+        <v>2999.237365779475</v>
       </c>
       <c r="AC5" t="n">
-        <v>2609.983080919317</v>
+        <v>2712.994361045562</v>
       </c>
       <c r="AD5" t="n">
-        <v>2108803.188609012</v>
+        <v>2192033.810899638</v>
       </c>
       <c r="AE5" t="n">
-        <v>2885357.556485532</v>
+        <v>2999237.365779475</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.238267020665782e-06</v>
+        <v>2.093351836540996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.36388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2609983.080919317</v>
+        <v>2712994.361045562</v>
       </c>
     </row>
     <row r="6">
@@ -3926,28 +3926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1929.078999524662</v>
+        <v>2012.394873161308</v>
       </c>
       <c r="AB6" t="n">
-        <v>2639.450992108694</v>
+        <v>2753.447446055286</v>
       </c>
       <c r="AC6" t="n">
-        <v>2387.545493914574</v>
+        <v>2490.662286291531</v>
       </c>
       <c r="AD6" t="n">
-        <v>1929078.999524662</v>
+        <v>2012394.873161308</v>
       </c>
       <c r="AE6" t="n">
-        <v>2639450.992108694</v>
+        <v>2753447.446055286</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.294140756400348e-06</v>
+        <v>2.187809159042787e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.65555555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>2387545.493914574</v>
+        <v>2490662.286291531</v>
       </c>
     </row>
     <row r="7">
@@ -4032,28 +4032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1810.4938600873</v>
+        <v>1893.639141523355</v>
       </c>
       <c r="AB7" t="n">
-        <v>2477.197572723373</v>
+        <v>2590.960614895117</v>
       </c>
       <c r="AC7" t="n">
-        <v>2240.777313151283</v>
+        <v>2343.682970245589</v>
       </c>
       <c r="AD7" t="n">
-        <v>1810493.8600873</v>
+        <v>1893639.141523355</v>
       </c>
       <c r="AE7" t="n">
-        <v>2477197.572723372</v>
+        <v>2590960.614895117</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.332654245261772e-06</v>
+        <v>2.252918122856032e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.20416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2240777.313151283</v>
+        <v>2343682.970245589</v>
       </c>
     </row>
     <row r="8">
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1703.77967416293</v>
+        <v>1787.010206945005</v>
       </c>
       <c r="AB8" t="n">
-        <v>2331.186515644033</v>
+        <v>2445.066202468427</v>
       </c>
       <c r="AC8" t="n">
-        <v>2108.70134643179</v>
+        <v>2211.712515776808</v>
       </c>
       <c r="AD8" t="n">
-        <v>1703779.67416293</v>
+        <v>1787010.206945005</v>
       </c>
       <c r="AE8" t="n">
-        <v>2331186.515644033</v>
+        <v>2445066.202468427</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.36153936190784e-06</v>
+        <v>2.301749845715966e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.88055555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>2108701.34643179</v>
+        <v>2211712.515776808</v>
       </c>
     </row>
     <row r="9">
@@ -4244,28 +4244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1622.29066340091</v>
+        <v>1705.521196182985</v>
       </c>
       <c r="AB9" t="n">
-        <v>2219.689656078008</v>
+        <v>2333.569342902402</v>
       </c>
       <c r="AC9" t="n">
-        <v>2007.845590655922</v>
+        <v>2110.85676000094</v>
       </c>
       <c r="AD9" t="n">
-        <v>1622290.66340091</v>
+        <v>1705521.196182986</v>
       </c>
       <c r="AE9" t="n">
-        <v>2219689.656078008</v>
+        <v>2333569.342902402</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38400556374367e-06</v>
+        <v>2.339730074607025e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.64027777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>2007845.590655921</v>
+        <v>2110856.760000939</v>
       </c>
     </row>
     <row r="10">
@@ -4350,28 +4350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1551.221669650055</v>
+        <v>1624.037807736101</v>
       </c>
       <c r="AB10" t="n">
-        <v>2122.449923485366</v>
+        <v>2222.080176035984</v>
       </c>
       <c r="AC10" t="n">
-        <v>1919.886281665099</v>
+        <v>2010.007962744224</v>
       </c>
       <c r="AD10" t="n">
-        <v>1551221.669650055</v>
+        <v>1624037.807736101</v>
       </c>
       <c r="AE10" t="n">
-        <v>2122449.923485366</v>
+        <v>2222080.176035984</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.401219926189307e-06</v>
+        <v>2.368831808432642e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.45972222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1919886.281665099</v>
+        <v>2010007.962744224</v>
       </c>
     </row>
     <row r="11">
@@ -4456,28 +4456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1538.546897564947</v>
+        <v>1611.363035650992</v>
       </c>
       <c r="AB11" t="n">
-        <v>2105.107741147041</v>
+        <v>2204.737993697659</v>
       </c>
       <c r="AC11" t="n">
-        <v>1904.199212869237</v>
+        <v>1994.320893948362</v>
       </c>
       <c r="AD11" t="n">
-        <v>1538546.897564947</v>
+        <v>1611363.035650992</v>
       </c>
       <c r="AE11" t="n">
-        <v>2105107.74114704</v>
+        <v>2204737.993697659</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.403845845884404e-06</v>
+        <v>2.373271055965364e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.43333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1904199.212869237</v>
+        <v>1994320.893948362</v>
       </c>
     </row>
     <row r="12">
@@ -4562,28 +4562,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1545.730500995888</v>
+        <v>1618.546639081933</v>
       </c>
       <c r="AB12" t="n">
-        <v>2114.93666427947</v>
+        <v>2214.566916830088</v>
       </c>
       <c r="AC12" t="n">
-        <v>1913.090077372889</v>
+        <v>2003.211758452013</v>
       </c>
       <c r="AD12" t="n">
-        <v>1545730.500995888</v>
+        <v>1618546.639081933</v>
       </c>
       <c r="AE12" t="n">
-        <v>2114936.66427947</v>
+        <v>2214566.916830088</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.403699961456899e-06</v>
+        <v>2.373024431102435e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.43472222222223</v>
       </c>
       <c r="AH12" t="n">
-        <v>1913090.077372889</v>
+        <v>2003211.758452013</v>
       </c>
     </row>
   </sheetData>
@@ -4859,28 +4859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5722.950157190874</v>
+        <v>5884.313901838063</v>
       </c>
       <c r="AB2" t="n">
-        <v>7830.39288381088</v>
+        <v>8051.177878103168</v>
       </c>
       <c r="AC2" t="n">
-        <v>7083.071177005111</v>
+        <v>7282.784761315821</v>
       </c>
       <c r="AD2" t="n">
-        <v>5722950.157190874</v>
+        <v>5884313.901838063</v>
       </c>
       <c r="AE2" t="n">
-        <v>7830392.88381088</v>
+        <v>8051177.878103168</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.851559124169731e-07</v>
+        <v>1.186546847847589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.59444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>7083071.177005111</v>
+        <v>7282784.761315821</v>
       </c>
     </row>
     <row r="3">
@@ -4965,28 +4965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2459.1024122091</v>
+        <v>2559.92274979313</v>
       </c>
       <c r="AB3" t="n">
-        <v>3364.652408326415</v>
+        <v>3502.599242088271</v>
       </c>
       <c r="AC3" t="n">
-        <v>3043.534704794929</v>
+        <v>3168.316086352145</v>
       </c>
       <c r="AD3" t="n">
-        <v>2459102.4122091</v>
+        <v>2559922.74979313</v>
       </c>
       <c r="AE3" t="n">
-        <v>3364652.408326415</v>
+        <v>3502599.242088271</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.107719030207177e-06</v>
+        <v>1.918337855330683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.92361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>3043534.704794929</v>
+        <v>3168316.086352145</v>
       </c>
     </row>
     <row r="4">
@@ -5071,28 +5071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1947.184577251074</v>
+        <v>2037.914346991244</v>
       </c>
       <c r="AB4" t="n">
-        <v>2664.223842315686</v>
+        <v>2788.364315989131</v>
       </c>
       <c r="AC4" t="n">
-        <v>2409.954058066724</v>
+        <v>2522.246739165023</v>
       </c>
       <c r="AD4" t="n">
-        <v>1947184.577251074</v>
+        <v>2037914.346991244</v>
       </c>
       <c r="AE4" t="n">
-        <v>2664223.842315686</v>
+        <v>2788364.315989131</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.260596329607704e-06</v>
+        <v>2.183089387680817e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.62638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>2409954.058066724</v>
+        <v>2522246.739165023</v>
       </c>
     </row>
     <row r="5">
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1713.411686007936</v>
+        <v>1794.136228758817</v>
       </c>
       <c r="AB5" t="n">
-        <v>2344.365459184743</v>
+        <v>2454.816339891979</v>
       </c>
       <c r="AC5" t="n">
-        <v>2120.622510097738</v>
+        <v>2220.53211376906</v>
       </c>
       <c r="AD5" t="n">
-        <v>1713411.686007936</v>
+        <v>1794136.228758817</v>
       </c>
       <c r="AE5" t="n">
-        <v>2344365.459184743</v>
+        <v>2454816.339891979</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.341788814383108e-06</v>
+        <v>2.323697802690069e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.62083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2120622.510097737</v>
+        <v>2220532.11376906</v>
       </c>
     </row>
     <row r="6">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1573.526403057573</v>
+        <v>1644.160467473145</v>
       </c>
       <c r="AB6" t="n">
-        <v>2152.968243748922</v>
+        <v>2249.612886837302</v>
       </c>
       <c r="AC6" t="n">
-        <v>1947.491976275432</v>
+        <v>2034.912990269066</v>
       </c>
       <c r="AD6" t="n">
-        <v>1573526.403057573</v>
+        <v>1644160.467473145</v>
       </c>
       <c r="AE6" t="n">
-        <v>2152968.243748922</v>
+        <v>2249612.886837302</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.391590896122667e-06</v>
+        <v>2.409944600000576e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1947491.976275432</v>
+        <v>2034912.990269066</v>
       </c>
     </row>
     <row r="7">
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1448.651318040099</v>
+        <v>1529.290519936408</v>
       </c>
       <c r="AB7" t="n">
-        <v>1982.108643328075</v>
+        <v>2092.442756913114</v>
       </c>
       <c r="AC7" t="n">
-        <v>1792.938976315796</v>
+        <v>1892.74295695518</v>
       </c>
       <c r="AD7" t="n">
-        <v>1448651.318040099</v>
+        <v>1529290.519936408</v>
       </c>
       <c r="AE7" t="n">
-        <v>1982108.643328075</v>
+        <v>2092442.756913114</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.426905099537992e-06</v>
+        <v>2.471101419911663e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.69027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1792938.976315796</v>
+        <v>1892742.95695518</v>
       </c>
     </row>
     <row r="8">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1405.707839589475</v>
+        <v>1486.347041485784</v>
       </c>
       <c r="AB8" t="n">
-        <v>1923.351481579371</v>
+        <v>2033.68559516441</v>
       </c>
       <c r="AC8" t="n">
-        <v>1739.789515618193</v>
+        <v>1839.593496257577</v>
       </c>
       <c r="AD8" t="n">
-        <v>1405707.839589475</v>
+        <v>1486347.041485784</v>
       </c>
       <c r="AE8" t="n">
-        <v>1923351.481579371</v>
+        <v>2033685.59516441</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.438676500676433e-06</v>
+        <v>2.491487026548693e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.56805555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>1739789.515618193</v>
+        <v>1839593.496257577</v>
       </c>
     </row>
     <row r="9">
@@ -5601,28 +5601,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1409.414477815256</v>
+        <v>1490.053679711565</v>
       </c>
       <c r="AB9" t="n">
-        <v>1928.423067525222</v>
+        <v>2038.757181110261</v>
       </c>
       <c r="AC9" t="n">
-        <v>1744.377076519389</v>
+        <v>1844.181057158773</v>
       </c>
       <c r="AD9" t="n">
-        <v>1409414.477815256</v>
+        <v>1490053.679711565</v>
       </c>
       <c r="AE9" t="n">
-        <v>1928423.067525222</v>
+        <v>2038757.181110261</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.439732908470908e-06</v>
+        <v>2.4933165040674e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.55833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1744377.076519389</v>
+        <v>1844181.057158773</v>
       </c>
     </row>
   </sheetData>
@@ -5898,28 +5898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1792.673453314375</v>
+        <v>1883.656517240936</v>
       </c>
       <c r="AB2" t="n">
-        <v>2452.814905995795</v>
+        <v>2577.301947949611</v>
       </c>
       <c r="AC2" t="n">
-        <v>2218.721693914898</v>
+        <v>2331.327867303302</v>
       </c>
       <c r="AD2" t="n">
-        <v>1792673.453314375</v>
+        <v>1883656.517240936</v>
       </c>
       <c r="AE2" t="n">
-        <v>2452814.905995796</v>
+        <v>2577301.947949611</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.208267133716012e-06</v>
+        <v>2.286301423656336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.35833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2218721.693914898</v>
+        <v>2331327.867303302</v>
       </c>
     </row>
     <row r="3">
@@ -6004,28 +6004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1123.348150072342</v>
+        <v>1196.271074974065</v>
       </c>
       <c r="AB3" t="n">
-        <v>1537.014497551688</v>
+        <v>1636.790860534618</v>
       </c>
       <c r="AC3" t="n">
-        <v>1390.32399111875</v>
+        <v>1480.577838055595</v>
       </c>
       <c r="AD3" t="n">
-        <v>1123348.150072342</v>
+        <v>1196271.074974065</v>
       </c>
       <c r="AE3" t="n">
-        <v>1537014.497551688</v>
+        <v>1636790.860534618</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.505997627431679e-06</v>
+        <v>2.84967158630782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.53055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>1390323.99111875</v>
+        <v>1480577.838055595</v>
       </c>
     </row>
     <row r="4">
@@ -6110,28 +6110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1111.078854248948</v>
+        <v>1183.831186950079</v>
       </c>
       <c r="AB4" t="n">
-        <v>1520.22710572299</v>
+        <v>1619.770056931074</v>
       </c>
       <c r="AC4" t="n">
-        <v>1375.138764404931</v>
+        <v>1465.181476059125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1111078.854248948</v>
+        <v>1183831.186950079</v>
       </c>
       <c r="AE4" t="n">
-        <v>1520227.105722991</v>
+        <v>1619770.056931074</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.51643840266379e-06</v>
+        <v>2.869427779794467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.42361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1375138.764404931</v>
+        <v>1465181.476059125</v>
       </c>
     </row>
   </sheetData>
@@ -6407,28 +6407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2741.940926308137</v>
+        <v>2855.644562600643</v>
       </c>
       <c r="AB2" t="n">
-        <v>3751.644541271331</v>
+        <v>3907.21887269715</v>
       </c>
       <c r="AC2" t="n">
-        <v>3393.592851718437</v>
+        <v>3534.319387302916</v>
       </c>
       <c r="AD2" t="n">
-        <v>2741940.926308136</v>
+        <v>2855644.562600642</v>
       </c>
       <c r="AE2" t="n">
-        <v>3751644.541271331</v>
+        <v>3907218.87269715</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.965803996338384e-07</v>
+        <v>1.815553056003737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.45138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3393592.851718437</v>
+        <v>3534319.387302916</v>
       </c>
     </row>
     <row r="3">
@@ -6513,28 +6513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1559.370306006081</v>
+        <v>1644.754642162261</v>
       </c>
       <c r="AB3" t="n">
-        <v>2133.599247240144</v>
+        <v>2250.425862860088</v>
       </c>
       <c r="AC3" t="n">
-        <v>1929.971529608895</v>
+        <v>2035.648377001256</v>
       </c>
       <c r="AD3" t="n">
-        <v>1559370.306006081</v>
+        <v>1644754.642162261</v>
       </c>
       <c r="AE3" t="n">
-        <v>2133599.247240144</v>
+        <v>2250425.862860088</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.347622865007607e-06</v>
+        <v>2.45507619034453e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1929971.529608895</v>
+        <v>2035648.377001256</v>
       </c>
     </row>
     <row r="4">
@@ -6619,28 +6619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1268.168625060099</v>
+        <v>1343.971079091287</v>
       </c>
       <c r="AB4" t="n">
-        <v>1735.164260458379</v>
+        <v>1838.880522232102</v>
       </c>
       <c r="AC4" t="n">
-        <v>1569.562618758565</v>
+        <v>1663.380346075292</v>
       </c>
       <c r="AD4" t="n">
-        <v>1268168.625060099</v>
+        <v>1343971.079091287</v>
       </c>
       <c r="AE4" t="n">
-        <v>1735164.260458379</v>
+        <v>1838880.522232102</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.472638446985599e-06</v>
+        <v>2.682827430476909e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.19305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1569562.618758565</v>
+        <v>1663380.346075292</v>
       </c>
     </row>
     <row r="5">
@@ -6725,28 +6725,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1202.18805455779</v>
+        <v>1278.075759934997</v>
       </c>
       <c r="AB5" t="n">
-        <v>1644.886733039786</v>
+        <v>1748.719639466158</v>
       </c>
       <c r="AC5" t="n">
-        <v>1487.901051851498</v>
+        <v>1581.824291418936</v>
       </c>
       <c r="AD5" t="n">
-        <v>1202188.05455779</v>
+        <v>1278075.759934997</v>
       </c>
       <c r="AE5" t="n">
-        <v>1644886.733039786</v>
+        <v>1748719.639466158</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.496964932653997e-06</v>
+        <v>2.727145004265556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.94722222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1487901.051851498</v>
+        <v>1581824.291418936</v>
       </c>
     </row>
     <row r="6">
@@ -6831,28 +6831,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1209.761597045706</v>
+        <v>1285.649302422914</v>
       </c>
       <c r="AB6" t="n">
-        <v>1655.249187992867</v>
+        <v>1759.08209441924</v>
       </c>
       <c r="AC6" t="n">
-        <v>1497.274528647654</v>
+        <v>1591.197768215092</v>
       </c>
       <c r="AD6" t="n">
-        <v>1209761.597045706</v>
+        <v>1285649.302422914</v>
       </c>
       <c r="AE6" t="n">
-        <v>1655249.187992867</v>
+        <v>1759082.09441924</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.496803830099902e-06</v>
+        <v>2.726851510399405e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.94861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1497274.528647654</v>
+        <v>1591197.768215092</v>
       </c>
     </row>
   </sheetData>
@@ -7128,28 +7128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1238.760995383264</v>
+        <v>1317.814252886278</v>
       </c>
       <c r="AB2" t="n">
-        <v>1694.927444161476</v>
+        <v>1803.091598660679</v>
       </c>
       <c r="AC2" t="n">
-        <v>1533.165947736312</v>
+        <v>1631.007067139456</v>
       </c>
       <c r="AD2" t="n">
-        <v>1238760.995383264</v>
+        <v>1317814.252886278</v>
       </c>
       <c r="AE2" t="n">
-        <v>1694927.444161476</v>
+        <v>1803091.598660679</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.396378883102739e-06</v>
+        <v>2.736452696952189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1533165.947736312</v>
+        <v>1631007.067139456</v>
       </c>
     </row>
     <row r="3">
@@ -7234,28 +7234,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1044.694091481901</v>
+        <v>1115.030039872419</v>
       </c>
       <c r="AB3" t="n">
-        <v>1429.396544616079</v>
+        <v>1525.633292207031</v>
       </c>
       <c r="AC3" t="n">
-        <v>1292.976944568571</v>
+        <v>1380.028992038565</v>
       </c>
       <c r="AD3" t="n">
-        <v>1044694.091481901</v>
+        <v>1115030.039872419</v>
       </c>
       <c r="AE3" t="n">
-        <v>1429396.544616079</v>
+        <v>1525633.292207031</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511636108048218e-06</v>
+        <v>2.962319721913548e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.06944444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1292976.944568571</v>
+        <v>1380028.992038565</v>
       </c>
     </row>
   </sheetData>
@@ -7531,28 +7531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6479.084967742131</v>
+        <v>6651.81604501724</v>
       </c>
       <c r="AB2" t="n">
-        <v>8864.969889920698</v>
+        <v>9101.308170205828</v>
       </c>
       <c r="AC2" t="n">
-        <v>8018.909605689717</v>
+        <v>8232.692092207284</v>
       </c>
       <c r="AD2" t="n">
-        <v>6479084.967742131</v>
+        <v>6651816.04501724</v>
       </c>
       <c r="AE2" t="n">
-        <v>8864969.889920698</v>
+        <v>9101308.170205828</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.414617120264242e-07</v>
+        <v>1.10362282073709e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.38611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>8018909.605689717</v>
+        <v>8232692.092207285</v>
       </c>
     </row>
     <row r="3">
@@ -7637,28 +7637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2629.952318914059</v>
+        <v>2731.538791613628</v>
       </c>
       <c r="AB3" t="n">
-        <v>3598.416788046077</v>
+        <v>3737.411881672509</v>
       </c>
       <c r="AC3" t="n">
-        <v>3254.988940204506</v>
+        <v>3380.718537176065</v>
       </c>
       <c r="AD3" t="n">
-        <v>2629952.318914059</v>
+        <v>2731538.791613628</v>
       </c>
       <c r="AE3" t="n">
-        <v>3598416.788046077</v>
+        <v>3737411.881672509</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.074138031189969e-06</v>
+        <v>1.848034296697082e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.33888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>3254988.940204505</v>
+        <v>3380718.537176065</v>
       </c>
     </row>
     <row r="4">
@@ -7743,28 +7743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2057.15995681483</v>
+        <v>2148.655974370403</v>
       </c>
       <c r="AB4" t="n">
-        <v>2814.697008406142</v>
+        <v>2939.88589614509</v>
       </c>
       <c r="AC4" t="n">
-        <v>2546.066276375922</v>
+        <v>2659.307312372772</v>
       </c>
       <c r="AD4" t="n">
-        <v>2057159.95681483</v>
+        <v>2148655.974370403</v>
       </c>
       <c r="AE4" t="n">
-        <v>2814697.008406142</v>
+        <v>2939885.89614509</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.23132531478516e-06</v>
+        <v>2.118472064147462e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.86944444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2546066.276375922</v>
+        <v>2659307.312372772</v>
       </c>
     </row>
     <row r="5">
@@ -7849,28 +7849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1810.749570050772</v>
+        <v>1892.1552219709</v>
       </c>
       <c r="AB5" t="n">
-        <v>2477.547446376522</v>
+        <v>2588.930250697539</v>
       </c>
       <c r="AC5" t="n">
-        <v>2241.093795354027</v>
+        <v>2341.846381157393</v>
       </c>
       <c r="AD5" t="n">
-        <v>1810749.570050772</v>
+        <v>1892155.2219709</v>
       </c>
       <c r="AE5" t="n">
-        <v>2477547.446376522</v>
+        <v>2588930.250697539</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.313882289613462e-06</v>
+        <v>2.260509787870212e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.80972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2241093.795354027</v>
+        <v>2341846.381157393</v>
       </c>
     </row>
     <row r="6">
@@ -7955,28 +7955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1666.39755862741</v>
+        <v>1747.632618346946</v>
       </c>
       <c r="AB6" t="n">
-        <v>2280.038655985791</v>
+        <v>2391.18804853196</v>
       </c>
       <c r="AC6" t="n">
-        <v>2062.434966712858</v>
+        <v>2162.976417233574</v>
       </c>
       <c r="AD6" t="n">
-        <v>1666397.55862741</v>
+        <v>1747632.618346946</v>
       </c>
       <c r="AE6" t="n">
-        <v>2280038.655985791</v>
+        <v>2391188.04853196</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.36413436124808e-06</v>
+        <v>2.346967532744929e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.22777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>2062434.966712858</v>
+        <v>2162976.417233574</v>
       </c>
     </row>
     <row r="7">
@@ -8061,28 +8061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1537.915578625075</v>
+        <v>1619.235889690632</v>
       </c>
       <c r="AB7" t="n">
-        <v>2104.243942721682</v>
+        <v>2215.509979920501</v>
       </c>
       <c r="AC7" t="n">
-        <v>1903.417854153246</v>
+        <v>2004.064816924674</v>
       </c>
       <c r="AD7" t="n">
-        <v>1537915.578625075</v>
+        <v>1619235.889690632</v>
       </c>
       <c r="AE7" t="n">
-        <v>2104243.942721682</v>
+        <v>2215509.979920501</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402571213659083e-06</v>
+        <v>2.413097414985412e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.80972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1903417.854153246</v>
+        <v>2004064.816924674</v>
       </c>
     </row>
     <row r="8">
@@ -8167,28 +8167,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1450.053500252019</v>
+        <v>1531.373811317576</v>
       </c>
       <c r="AB8" t="n">
-        <v>1984.027170890338</v>
+        <v>2095.293208089157</v>
       </c>
       <c r="AC8" t="n">
-        <v>1794.674402300187</v>
+        <v>1895.321365071615</v>
       </c>
       <c r="AD8" t="n">
-        <v>1450053.500252019</v>
+        <v>1531373.811317576</v>
       </c>
       <c r="AE8" t="n">
-        <v>1984027.170890338</v>
+        <v>2095293.208089157</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.426949450791353e-06</v>
+        <v>2.455039713838326e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.55694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1794674.402300186</v>
+        <v>1895321.365071615</v>
       </c>
     </row>
     <row r="9">
@@ -8273,28 +8273,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1436.744713287404</v>
+        <v>1508.059999572089</v>
       </c>
       <c r="AB9" t="n">
-        <v>1965.81750142311</v>
+        <v>2063.394222326197</v>
       </c>
       <c r="AC9" t="n">
-        <v>1778.202638129479</v>
+        <v>1866.466773739364</v>
       </c>
       <c r="AD9" t="n">
-        <v>1436744.713287405</v>
+        <v>1508059.999572089</v>
       </c>
       <c r="AE9" t="n">
-        <v>1965817.50142311</v>
+        <v>2063394.222326197</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.431436242901587e-06</v>
+        <v>2.462759155344997e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.51111111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1778202.638129479</v>
+        <v>1866466.773739364</v>
       </c>
     </row>
   </sheetData>
@@ -8570,28 +8570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1011.361858075137</v>
+        <v>1088.833796566857</v>
       </c>
       <c r="AB2" t="n">
-        <v>1383.789912354592</v>
+        <v>1489.790436419672</v>
       </c>
       <c r="AC2" t="n">
-        <v>1251.722945280809</v>
+        <v>1347.606928101787</v>
       </c>
       <c r="AD2" t="n">
-        <v>1011361.858075137</v>
+        <v>1088833.796566857</v>
       </c>
       <c r="AE2" t="n">
-        <v>1383789.912354592</v>
+        <v>1489790.436419672</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.486662419492799e-06</v>
+        <v>2.980253245746616e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.72222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1251722.945280809</v>
+        <v>1347606.928101787</v>
       </c>
     </row>
     <row r="3">
@@ -8676,28 +8676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1011.039831937333</v>
+        <v>1088.511770429053</v>
       </c>
       <c r="AB3" t="n">
-        <v>1383.349301986057</v>
+        <v>1489.349826051137</v>
       </c>
       <c r="AC3" t="n">
-        <v>1251.324386147446</v>
+        <v>1347.208368968425</v>
       </c>
       <c r="AD3" t="n">
-        <v>1011039.831937333</v>
+        <v>1088511.770429053</v>
       </c>
       <c r="AE3" t="n">
-        <v>1383349.301986057</v>
+        <v>1489349.826051137</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.494537828408966e-06</v>
+        <v>2.996040765950426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.63333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1251324.386147446</v>
+        <v>1347208.368968425</v>
       </c>
     </row>
   </sheetData>
@@ -8973,28 +8973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3984.999179608728</v>
+        <v>4112.499200938802</v>
       </c>
       <c r="AB2" t="n">
-        <v>5452.451683297029</v>
+        <v>5626.902837384801</v>
       </c>
       <c r="AC2" t="n">
-        <v>4932.077347206956</v>
+        <v>5089.879127992318</v>
       </c>
       <c r="AD2" t="n">
-        <v>3984999.179608728</v>
+        <v>4112499.200938802</v>
       </c>
       <c r="AE2" t="n">
-        <v>5452451.68329703</v>
+        <v>5626902.837384801</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.28137746384737e-07</v>
+        <v>1.46669348519597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.07638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>4932077.347206956</v>
+        <v>5089879.127992318</v>
       </c>
     </row>
     <row r="3">
@@ -9079,28 +9079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1994.919061225459</v>
+        <v>2083.247326924293</v>
       </c>
       <c r="AB3" t="n">
-        <v>2729.536269186246</v>
+        <v>2850.390899083454</v>
       </c>
       <c r="AC3" t="n">
-        <v>2469.033158583326</v>
+        <v>2578.353592223682</v>
       </c>
       <c r="AD3" t="n">
-        <v>1994919.061225459</v>
+        <v>2083247.326924293</v>
       </c>
       <c r="AE3" t="n">
-        <v>2729536.269186246</v>
+        <v>2850390.899083454</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.218105727596326e-06</v>
+        <v>2.157355757233426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2469033.158583325</v>
+        <v>2578353.592223682</v>
       </c>
     </row>
     <row r="4">
@@ -9185,28 +9185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1608.266706835455</v>
+        <v>1696.424290825147</v>
       </c>
       <c r="AB4" t="n">
-        <v>2200.501460011855</v>
+        <v>2321.122555664667</v>
       </c>
       <c r="AC4" t="n">
-        <v>1990.488689091519</v>
+        <v>2099.597876667998</v>
       </c>
       <c r="AD4" t="n">
-        <v>1608266.706835455</v>
+        <v>1696424.290825147</v>
       </c>
       <c r="AE4" t="n">
-        <v>2200501.460011855</v>
+        <v>2321122.555664667</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.357735411459167e-06</v>
+        <v>2.404650302803456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.90555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1990488.689091519</v>
+        <v>2099597.876667998</v>
       </c>
     </row>
     <row r="5">
@@ -9291,28 +9291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1423.897272621227</v>
+        <v>1492.597124339983</v>
       </c>
       <c r="AB5" t="n">
-        <v>1948.239066314565</v>
+        <v>2042.23723425972</v>
       </c>
       <c r="AC5" t="n">
-        <v>1762.301864196206</v>
+        <v>1847.328978919932</v>
       </c>
       <c r="AD5" t="n">
-        <v>1423897.272621227</v>
+        <v>1492597.124339983</v>
       </c>
       <c r="AE5" t="n">
-        <v>1948239.066314565</v>
+        <v>2042237.23425972</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.429416128898777e-06</v>
+        <v>2.531602179760899e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.10833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1762301.864196206</v>
+        <v>1847328.978919932</v>
       </c>
     </row>
     <row r="6">
@@ -9397,28 +9397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1306.187646526449</v>
+        <v>1384.616319626398</v>
       </c>
       <c r="AB6" t="n">
-        <v>1787.183562909489</v>
+        <v>1894.493133473699</v>
       </c>
       <c r="AC6" t="n">
-        <v>1616.617271993292</v>
+        <v>1713.685367752781</v>
       </c>
       <c r="AD6" t="n">
-        <v>1306187.64652645</v>
+        <v>1384616.319626398</v>
       </c>
       <c r="AE6" t="n">
-        <v>1787183.562909489</v>
+        <v>1894493.133473699</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.46704461831393e-06</v>
+        <v>2.598245030571531e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.71944444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1616617.271993292</v>
+        <v>1713685.367752781</v>
       </c>
     </row>
     <row r="7">
@@ -9503,28 +9503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1307.503545109505</v>
+        <v>1385.932218209453</v>
       </c>
       <c r="AB7" t="n">
-        <v>1788.984033404174</v>
+        <v>1896.293603968383</v>
       </c>
       <c r="AC7" t="n">
-        <v>1618.245908110939</v>
+        <v>1715.314003870429</v>
       </c>
       <c r="AD7" t="n">
-        <v>1307503.545109505</v>
+        <v>1385932.218209453</v>
       </c>
       <c r="AE7" t="n">
-        <v>1788984.033404174</v>
+        <v>1896293.603968383</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.469065983447802e-06</v>
+        <v>2.601825018424995e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.70138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1618245.908110939</v>
+        <v>1715314.003870429</v>
       </c>
     </row>
   </sheetData>
@@ -9800,28 +9800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5062.920217341941</v>
+        <v>5212.867751894753</v>
       </c>
       <c r="AB2" t="n">
-        <v>6927.310801643651</v>
+        <v>7132.475633637168</v>
       </c>
       <c r="AC2" t="n">
-        <v>6266.177981276293</v>
+        <v>6451.762169654991</v>
       </c>
       <c r="AD2" t="n">
-        <v>5062920.217341941</v>
+        <v>5212867.751894753</v>
       </c>
       <c r="AE2" t="n">
-        <v>6927310.801643651</v>
+        <v>7132475.633637168</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.306651089786638e-07</v>
+        <v>1.274216148962821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.96111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>6266177.981276293</v>
+        <v>6451762.169654991</v>
       </c>
     </row>
     <row r="3">
@@ -9906,28 +9906,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2303.257997128649</v>
+        <v>2403.194573212334</v>
       </c>
       <c r="AB3" t="n">
-        <v>3151.419204242975</v>
+        <v>3288.156836531254</v>
       </c>
       <c r="AC3" t="n">
-        <v>2850.65217843454</v>
+        <v>2974.339763009692</v>
       </c>
       <c r="AD3" t="n">
-        <v>2303257.997128649</v>
+        <v>2403194.573212334</v>
       </c>
       <c r="AE3" t="n">
-        <v>3151419.204242975</v>
+        <v>3288156.836531254</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.142921110833598e-06</v>
+        <v>1.993154618331752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.51388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2850652.17843454</v>
+        <v>2974339.763009692</v>
       </c>
     </row>
     <row r="4">
@@ -10012,28 +10012,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1835.157355245004</v>
+        <v>1915.089637449589</v>
       </c>
       <c r="AB4" t="n">
-        <v>2510.943254874757</v>
+        <v>2620.310129750482</v>
       </c>
       <c r="AC4" t="n">
-        <v>2271.302354760502</v>
+        <v>2370.23140859546</v>
       </c>
       <c r="AD4" t="n">
-        <v>1835157.355245004</v>
+        <v>1915089.637449589</v>
       </c>
       <c r="AE4" t="n">
-        <v>2510943.254874757</v>
+        <v>2620310.129750482</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.292222988815059e-06</v>
+        <v>2.253524056610227e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2271302.354760502</v>
+        <v>2370231.40859546</v>
       </c>
     </row>
     <row r="5">
@@ -10118,28 +10118,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1619.430594931649</v>
+        <v>1699.277536281661</v>
       </c>
       <c r="AB5" t="n">
-        <v>2215.776384221048</v>
+        <v>2325.026491974576</v>
       </c>
       <c r="AC5" t="n">
-        <v>2004.305795972678</v>
+        <v>2103.129226775698</v>
       </c>
       <c r="AD5" t="n">
-        <v>1619430.594931649</v>
+        <v>1699277.536281661</v>
       </c>
       <c r="AE5" t="n">
-        <v>2215776.384221049</v>
+        <v>2325026.491974576</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.369463858342204e-06</v>
+        <v>2.388225388454295e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.45138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>2004305.795972678</v>
+        <v>2103129.226775698</v>
       </c>
     </row>
     <row r="6">
@@ -10224,28 +10224,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1469.226702758772</v>
+        <v>1549.158895454806</v>
       </c>
       <c r="AB6" t="n">
-        <v>2010.260792422074</v>
+        <v>2119.627544828251</v>
       </c>
       <c r="AC6" t="n">
-        <v>1818.404323812053</v>
+        <v>1917.333266865785</v>
       </c>
       <c r="AD6" t="n">
-        <v>1469226.702758773</v>
+        <v>1549158.895454806</v>
       </c>
       <c r="AE6" t="n">
-        <v>2010260.792422074</v>
+        <v>2119627.544828251</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.418672538534053e-06</v>
+        <v>2.474041029846078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.91388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1818404.323812053</v>
+        <v>1917333.266865785</v>
       </c>
     </row>
     <row r="7">
@@ -10330,28 +10330,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1377.786152099402</v>
+        <v>1457.718344795435</v>
       </c>
       <c r="AB7" t="n">
-        <v>1885.147796937538</v>
+        <v>1994.514549343715</v>
       </c>
       <c r="AC7" t="n">
-        <v>1705.231937019369</v>
+        <v>1804.160880073101</v>
       </c>
       <c r="AD7" t="n">
-        <v>1377786.152099401</v>
+        <v>1457718.344795435</v>
       </c>
       <c r="AE7" t="n">
-        <v>1885147.796937538</v>
+        <v>1994514.549343715</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.446400030159181e-06</v>
+        <v>2.522395354097796e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.62916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1705231.937019369</v>
+        <v>1804160.880073101</v>
       </c>
     </row>
     <row r="8">
@@ -10436,28 +10436,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1373.217370634182</v>
+        <v>1453.149563330216</v>
       </c>
       <c r="AB8" t="n">
-        <v>1878.896588576413</v>
+        <v>1988.26334098259</v>
       </c>
       <c r="AC8" t="n">
-        <v>1699.577335210603</v>
+        <v>1798.506278264336</v>
       </c>
       <c r="AD8" t="n">
-        <v>1373217.370634182</v>
+        <v>1453149.563330216</v>
       </c>
       <c r="AE8" t="n">
-        <v>1878896.588576413</v>
+        <v>1988263.34098259</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.449599356115927e-06</v>
+        <v>2.527974699203762e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.59722222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1699577.335210603</v>
+        <v>1798506.278264336</v>
       </c>
     </row>
   </sheetData>
@@ -10733,28 +10733,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8367.225205433271</v>
+        <v>8563.550945731835</v>
       </c>
       <c r="AB2" t="n">
-        <v>11448.40666199821</v>
+        <v>11717.02820115511</v>
       </c>
       <c r="AC2" t="n">
-        <v>10355.78679811634</v>
+        <v>10598.77147458878</v>
       </c>
       <c r="AD2" t="n">
-        <v>8367225.205433271</v>
+        <v>8563550.945731835</v>
       </c>
       <c r="AE2" t="n">
-        <v>11448406.66199821</v>
+        <v>11717028.20115511</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.589394554699322e-07</v>
+        <v>9.501600298158278e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.53611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>10355786.79811634</v>
+        <v>10598771.47458878</v>
       </c>
     </row>
     <row r="3">
@@ -10839,28 +10839,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2982.861061658517</v>
+        <v>3086.15006355099</v>
       </c>
       <c r="AB3" t="n">
-        <v>4081.282099103979</v>
+        <v>4222.60666828243</v>
       </c>
       <c r="AC3" t="n">
-        <v>3691.770263680743</v>
+        <v>3819.607014327076</v>
       </c>
       <c r="AD3" t="n">
-        <v>2982861.061658517</v>
+        <v>3086150.06355099</v>
       </c>
       <c r="AE3" t="n">
-        <v>4081282.099103979</v>
+        <v>4222606.668282431</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.010237847692301e-06</v>
+        <v>1.717337386170675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.21527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>3691770.263680744</v>
+        <v>3819607.014327076</v>
       </c>
     </row>
     <row r="4">
@@ -10945,28 +10945,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2294.38672068274</v>
+        <v>2387.252956396792</v>
       </c>
       <c r="AB4" t="n">
-        <v>3139.281132436588</v>
+        <v>3266.344813109731</v>
       </c>
       <c r="AC4" t="n">
-        <v>2839.672547165463</v>
+        <v>2954.609448490154</v>
       </c>
       <c r="AD4" t="n">
-        <v>2294386.72068274</v>
+        <v>2387252.956396793</v>
       </c>
       <c r="AE4" t="n">
-        <v>3139281.132436588</v>
+        <v>3266344.813109731</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.175522759017795e-06</v>
+        <v>1.998310780938629e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.37361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2839672.547165463</v>
+        <v>2954609.448490154</v>
       </c>
     </row>
     <row r="5">
@@ -11051,28 +11051,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2013.590055664124</v>
+        <v>2096.204206908898</v>
       </c>
       <c r="AB5" t="n">
-        <v>2755.082747483369</v>
+        <v>2868.119073895593</v>
       </c>
       <c r="AC5" t="n">
-        <v>2492.141516846477</v>
+        <v>2594.3898149134</v>
       </c>
       <c r="AD5" t="n">
-        <v>2013590.055664124</v>
+        <v>2096204.206908898</v>
       </c>
       <c r="AE5" t="n">
-        <v>2755082.747483368</v>
+        <v>2868119.073895593</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.262135581767542e-06</v>
+        <v>2.145546839228953e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>2492141.516846477</v>
+        <v>2594389.8149134</v>
       </c>
     </row>
     <row r="6">
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1839.541457773621</v>
+        <v>1922.070268163824</v>
       </c>
       <c r="AB6" t="n">
-        <v>2516.941777367364</v>
+        <v>2629.861336657391</v>
       </c>
       <c r="AC6" t="n">
-        <v>2276.728386685394</v>
+        <v>2378.871061720377</v>
       </c>
       <c r="AD6" t="n">
-        <v>1839541.457773621</v>
+        <v>1922070.268163824</v>
       </c>
       <c r="AE6" t="n">
-        <v>2516941.777367365</v>
+        <v>2629861.336657391</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.318161872884102e-06</v>
+        <v>2.240787820907414e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.49444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>2276728.386685394</v>
+        <v>2378871.061720377</v>
       </c>
     </row>
     <row r="7">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1724.865447278897</v>
+        <v>1797.227514054394</v>
       </c>
       <c r="AB7" t="n">
-        <v>2360.037000659956</v>
+        <v>2459.04597281127</v>
       </c>
       <c r="AC7" t="n">
-        <v>2134.798381649703</v>
+        <v>2224.35807645886</v>
       </c>
       <c r="AD7" t="n">
-        <v>1724865.447278897</v>
+        <v>1797227.514054394</v>
       </c>
       <c r="AE7" t="n">
-        <v>2360037.000659956</v>
+        <v>2459045.97281127</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.355365682995623e-06</v>
+        <v>2.30403183236319e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.06944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>2134798.381649703</v>
+        <v>2224358.07645886</v>
       </c>
     </row>
     <row r="8">
@@ -11369,28 +11369,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1618.322310181576</v>
+        <v>1700.936371917799</v>
       </c>
       <c r="AB8" t="n">
-        <v>2214.259980131927</v>
+        <v>2327.296184074602</v>
       </c>
       <c r="AC8" t="n">
-        <v>2002.934115361536</v>
+        <v>2105.182302647231</v>
       </c>
       <c r="AD8" t="n">
-        <v>1618322.310181576</v>
+        <v>1700936.371917799</v>
       </c>
       <c r="AE8" t="n">
-        <v>2214259.980131926</v>
+        <v>2327296.184074603</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.383305303237478e-06</v>
+        <v>2.351527335037488e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.76388888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>2002934.115361535</v>
+        <v>2105182.302647231</v>
       </c>
     </row>
     <row r="9">
@@ -11475,28 +11475,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1534.685289566276</v>
+        <v>1617.2993513025</v>
       </c>
       <c r="AB9" t="n">
-        <v>2099.824118721138</v>
+        <v>2212.860322663814</v>
       </c>
       <c r="AC9" t="n">
-        <v>1899.419851952052</v>
+        <v>2001.668039237748</v>
       </c>
       <c r="AD9" t="n">
-        <v>1534685.289566276</v>
+        <v>1617299.3513025</v>
       </c>
       <c r="AE9" t="n">
-        <v>2099824.118721138</v>
+        <v>2212860.322663814</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.405215847532405e-06</v>
+        <v>2.388773808187333e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.53472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1899419.851952052</v>
+        <v>2001668.039237748</v>
       </c>
     </row>
     <row r="10">
@@ -11581,28 +11581,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1508.303268439493</v>
+        <v>1580.579994360418</v>
       </c>
       <c r="AB10" t="n">
-        <v>2063.727073522844</v>
+        <v>2162.61927855196</v>
       </c>
       <c r="AC10" t="n">
-        <v>1866.767858084962</v>
+        <v>1956.221929862181</v>
       </c>
       <c r="AD10" t="n">
-        <v>1508303.268439493</v>
+        <v>1580579.994360418</v>
       </c>
       <c r="AE10" t="n">
-        <v>2063727.073522844</v>
+        <v>2162619.27855196</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410509670315072e-06</v>
+        <v>2.397772956062463e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.48055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1866767.858084962</v>
+        <v>1956221.92986218</v>
       </c>
     </row>
     <row r="11">
@@ -11687,28 +11687,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1514.583933679983</v>
+        <v>1586.860659600908</v>
       </c>
       <c r="AB11" t="n">
-        <v>2072.320556788277</v>
+        <v>2171.212761817393</v>
       </c>
       <c r="AC11" t="n">
-        <v>1874.541191368573</v>
+        <v>1963.99526314579</v>
       </c>
       <c r="AD11" t="n">
-        <v>1514583.933679983</v>
+        <v>1586860.659600908</v>
       </c>
       <c r="AE11" t="n">
-        <v>2072320.556788278</v>
+        <v>2171212.761817393</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.409480315885109e-06</v>
+        <v>2.39602312175341e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.49027777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1874541.191368572</v>
+        <v>1963995.26314579</v>
       </c>
     </row>
   </sheetData>
@@ -11984,28 +11984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3114.150370021897</v>
+        <v>3229.448126355745</v>
       </c>
       <c r="AB2" t="n">
-        <v>4260.917922882268</v>
+        <v>4418.673399676264</v>
       </c>
       <c r="AC2" t="n">
-        <v>3854.261896558087</v>
+        <v>3996.961412058061</v>
       </c>
       <c r="AD2" t="n">
-        <v>3114150.370021897</v>
+        <v>3229448.126355745</v>
       </c>
       <c r="AE2" t="n">
-        <v>4260917.922882267</v>
+        <v>4418673.399676264</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.367000804517147e-07</v>
+        <v>1.689091905707589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.5875</v>
       </c>
       <c r="AH2" t="n">
-        <v>3854261.896558087</v>
+        <v>3996961.412058061</v>
       </c>
     </row>
     <row r="3">
@@ -12090,28 +12090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1698.673583230091</v>
+        <v>1785.061559625906</v>
       </c>
       <c r="AB3" t="n">
-        <v>2324.20013676489</v>
+        <v>2442.399977238183</v>
       </c>
       <c r="AC3" t="n">
-        <v>2102.381737747428</v>
+        <v>2209.300751340468</v>
       </c>
       <c r="AD3" t="n">
-        <v>1698673.583230091</v>
+        <v>1785061.559625906</v>
       </c>
       <c r="AE3" t="n">
-        <v>2324200.13676489</v>
+        <v>2442399.977238183</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.301962204214815e-06</v>
+        <v>2.347745950460412e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.97083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2102381.737747428</v>
+        <v>2209300.751340468</v>
       </c>
     </row>
     <row r="4">
@@ -12196,28 +12196,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1383.671628295529</v>
+        <v>1460.366206984168</v>
       </c>
       <c r="AB4" t="n">
-        <v>1893.200565117964</v>
+        <v>1998.137471205775</v>
       </c>
       <c r="AC4" t="n">
-        <v>1712.516160306786</v>
+        <v>1807.43803535745</v>
       </c>
       <c r="AD4" t="n">
-        <v>1383671.628295528</v>
+        <v>1460366.206984168</v>
       </c>
       <c r="AE4" t="n">
-        <v>1893200.565117964</v>
+        <v>1998137.471205775</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432094790119962e-06</v>
+        <v>2.582405797415033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.42916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1712516.160306786</v>
+        <v>1807438.03535745</v>
       </c>
     </row>
     <row r="5">
@@ -12302,28 +12302,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1237.618602026289</v>
+        <v>1314.39843206095</v>
       </c>
       <c r="AB5" t="n">
-        <v>1693.364371171624</v>
+        <v>1798.417921912085</v>
       </c>
       <c r="AC5" t="n">
-        <v>1531.752052238826</v>
+        <v>1626.779439540201</v>
       </c>
       <c r="AD5" t="n">
-        <v>1237618.602026289</v>
+        <v>1314398.43206095</v>
       </c>
       <c r="AE5" t="n">
-        <v>1693364.371171624</v>
+        <v>1798417.921912085</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.486343215295579e-06</v>
+        <v>2.680228545350884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.86527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1531752.052238826</v>
+        <v>1626779.439540201</v>
       </c>
     </row>
     <row r="6">
@@ -12408,28 +12408,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1239.837495657735</v>
+        <v>1316.617325692395</v>
       </c>
       <c r="AB6" t="n">
-        <v>1696.400359328846</v>
+        <v>1801.453910069307</v>
       </c>
       <c r="AC6" t="n">
-        <v>1534.498289947358</v>
+        <v>1629.525677248734</v>
       </c>
       <c r="AD6" t="n">
-        <v>1239837.495657735</v>
+        <v>1316617.325692395</v>
       </c>
       <c r="AE6" t="n">
-        <v>1696400.359328846</v>
+        <v>1801453.910069307</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488570423367305e-06</v>
+        <v>2.684244728550596e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.84305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1534498.289947358</v>
+        <v>1629525.677248734</v>
       </c>
     </row>
   </sheetData>
@@ -12705,28 +12705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2088.964998184467</v>
+        <v>2181.396951833208</v>
       </c>
       <c r="AB2" t="n">
-        <v>2858.214069147477</v>
+        <v>2984.683545939683</v>
       </c>
       <c r="AC2" t="n">
-        <v>2585.430129916682</v>
+        <v>2699.829537344865</v>
       </c>
       <c r="AD2" t="n">
-        <v>2088964.998184467</v>
+        <v>2181396.951833208</v>
       </c>
       <c r="AE2" t="n">
-        <v>2858214.069147477</v>
+        <v>2984683.545939683</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.130508957736526e-06</v>
+        <v>2.109168356157898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2585430.129916682</v>
+        <v>2699829.537344866</v>
       </c>
     </row>
     <row r="3">
@@ -12811,28 +12811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1258.765978483106</v>
+        <v>1332.779742478916</v>
       </c>
       <c r="AB3" t="n">
-        <v>1722.299144596245</v>
+        <v>1823.568041752129</v>
       </c>
       <c r="AC3" t="n">
-        <v>1557.92533149801</v>
+        <v>1649.529267241127</v>
       </c>
       <c r="AD3" t="n">
-        <v>1258765.978483106</v>
+        <v>1332779.742478915</v>
       </c>
       <c r="AE3" t="n">
-        <v>1722299.144596245</v>
+        <v>1823568.041752129</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.453653558672649e-06</v>
+        <v>2.712052890679725e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.83472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1557925.33149801</v>
+        <v>1649529.267241127</v>
       </c>
     </row>
     <row r="4">
@@ -12917,28 +12917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1143.633656565245</v>
+        <v>1217.476828360463</v>
       </c>
       <c r="AB4" t="n">
-        <v>1564.770022468663</v>
+        <v>1665.8055078497</v>
       </c>
       <c r="AC4" t="n">
-        <v>1415.430567692773</v>
+        <v>1506.823368153238</v>
       </c>
       <c r="AD4" t="n">
-        <v>1143633.656565245</v>
+        <v>1217476.828360463</v>
       </c>
       <c r="AE4" t="n">
-        <v>1564770.022468663</v>
+        <v>1665805.507849701</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.511322441301249e-06</v>
+        <v>2.819644592225159e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.22916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1415430.567692773</v>
+        <v>1506823.368153238</v>
       </c>
     </row>
     <row r="5">
@@ -13023,28 +13023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1149.691793572776</v>
+        <v>1223.534965367993</v>
       </c>
       <c r="AB5" t="n">
-        <v>1573.059032788508</v>
+        <v>1674.094518169545</v>
       </c>
       <c r="AC5" t="n">
-        <v>1422.928486501391</v>
+        <v>1514.321286961856</v>
       </c>
       <c r="AD5" t="n">
-        <v>1149691.793572776</v>
+        <v>1223534.965367993</v>
       </c>
       <c r="AE5" t="n">
-        <v>1573059.032788508</v>
+        <v>1674094.518169545</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.51248244756102e-06</v>
+        <v>2.821808793118314e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.21666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1422928.486501391</v>
+        <v>1514321.286961857</v>
       </c>
     </row>
   </sheetData>
@@ -23629,28 +23629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1513.04704708815</v>
+        <v>1593.663199560564</v>
       </c>
       <c r="AB2" t="n">
-        <v>2070.217720750682</v>
+        <v>2180.520297097077</v>
       </c>
       <c r="AC2" t="n">
-        <v>1872.639047051055</v>
+        <v>1972.41450032159</v>
       </c>
       <c r="AD2" t="n">
-        <v>1513047.04708815</v>
+        <v>1593663.199560564</v>
       </c>
       <c r="AE2" t="n">
-        <v>2070217.720750681</v>
+        <v>2180520.297097077</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.295113789777805e-06</v>
+        <v>2.490551845234499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.38333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1872639.047051055</v>
+        <v>1972414.50032159</v>
       </c>
     </row>
     <row r="3">
@@ -23735,28 +23735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1070.565031025014</v>
+        <v>1142.299612196956</v>
       </c>
       <c r="AB3" t="n">
-        <v>1464.794305444268</v>
+        <v>1562.944724110086</v>
       </c>
       <c r="AC3" t="n">
-        <v>1324.996392784386</v>
+        <v>1413.779473247716</v>
       </c>
       <c r="AD3" t="n">
-        <v>1070565.031025014</v>
+        <v>1142299.612196956</v>
       </c>
       <c r="AE3" t="n">
-        <v>1464794.305444268</v>
+        <v>1562944.724110086</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.516937382626579e-06</v>
+        <v>2.917126840301799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.69583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1324996.392784386</v>
+        <v>1413779.473247716</v>
       </c>
     </row>
     <row r="4">
@@ -23841,28 +23841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1079.595812359488</v>
+        <v>1151.33039353143</v>
       </c>
       <c r="AB4" t="n">
-        <v>1477.15061887605</v>
+        <v>1575.301037541867</v>
       </c>
       <c r="AC4" t="n">
-        <v>1336.173437004433</v>
+        <v>1424.956517467763</v>
       </c>
       <c r="AD4" t="n">
-        <v>1079595.812359488</v>
+        <v>1151330.39353143</v>
       </c>
       <c r="AE4" t="n">
-        <v>1477150.61887605</v>
+        <v>1575301.037541867</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.516765957902584e-06</v>
+        <v>2.91679718420051e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.69583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1336173.437004433</v>
+        <v>1424956.517467763</v>
       </c>
     </row>
   </sheetData>
@@ -24138,28 +24138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>976.182825893824</v>
+        <v>1051.801426644748</v>
       </c>
       <c r="AB2" t="n">
-        <v>1335.656408534752</v>
+        <v>1439.121114139384</v>
       </c>
       <c r="AC2" t="n">
-        <v>1208.183235509738</v>
+        <v>1301.77341482509</v>
       </c>
       <c r="AD2" t="n">
-        <v>976182.825893824</v>
+        <v>1051801.426644748</v>
       </c>
       <c r="AE2" t="n">
-        <v>1335656.408534752</v>
+        <v>1439121.114139384</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448745309195979e-06</v>
+        <v>2.988181091575083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1208183.235509738</v>
+        <v>1301773.41482509</v>
       </c>
     </row>
     <row r="3">
@@ -24244,28 +24244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>989.3530014655742</v>
+        <v>1064.971602216498</v>
       </c>
       <c r="AB3" t="n">
-        <v>1353.676423779161</v>
+        <v>1457.141129383792</v>
       </c>
       <c r="AC3" t="n">
-        <v>1224.48344579047</v>
+        <v>1318.073625105822</v>
       </c>
       <c r="AD3" t="n">
-        <v>989353.0014655741</v>
+        <v>1064971.602216498</v>
       </c>
       <c r="AE3" t="n">
-        <v>1353676.423779161</v>
+        <v>1457141.129383792</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.448745309195979e-06</v>
+        <v>2.988181091575083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.63888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1224483.44579047</v>
+        <v>1318073.625105822</v>
       </c>
     </row>
   </sheetData>
@@ -24541,28 +24541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4495.730919817976</v>
+        <v>4634.303491200009</v>
       </c>
       <c r="AB2" t="n">
-        <v>6151.257382145523</v>
+        <v>6340.858487700816</v>
       </c>
       <c r="AC2" t="n">
-        <v>5564.190010937279</v>
+        <v>5735.695853085193</v>
       </c>
       <c r="AD2" t="n">
-        <v>4495730.919817977</v>
+        <v>4634303.491200009</v>
       </c>
       <c r="AE2" t="n">
-        <v>6151257.382145522</v>
+        <v>6340858.487700816</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.778115098196784e-07</v>
+        <v>1.366584139819177e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.47361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>5564190.010937279</v>
+        <v>5735695.853085193</v>
       </c>
     </row>
     <row r="3">
@@ -24647,28 +24647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2149.934571735034</v>
+        <v>2239.041354120703</v>
       </c>
       <c r="AB3" t="n">
-        <v>2941.635329467113</v>
+        <v>3063.555160241155</v>
       </c>
       <c r="AC3" t="n">
-        <v>2660.889782233886</v>
+        <v>2771.173755474295</v>
       </c>
       <c r="AD3" t="n">
-        <v>2149934.571735034</v>
+        <v>2239041.354120702</v>
       </c>
       <c r="AE3" t="n">
-        <v>2941635.329467113</v>
+        <v>3063555.160241155</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.18018086653154e-06</v>
+        <v>2.073531226985775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.10833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2660889.782233886</v>
+        <v>2771173.755474295</v>
       </c>
     </row>
     <row r="4">
@@ -24753,28 +24753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1724.771171038032</v>
+        <v>1803.967727453511</v>
       </c>
       <c r="AB4" t="n">
-        <v>2359.908007748031</v>
+        <v>2468.268230141171</v>
       </c>
       <c r="AC4" t="n">
-        <v>2134.681699640249</v>
+        <v>2232.700174492715</v>
       </c>
       <c r="AD4" t="n">
-        <v>1724771.171038033</v>
+        <v>1803967.727453511</v>
       </c>
       <c r="AE4" t="n">
-        <v>2359908.007748031</v>
+        <v>2468268.23014117</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.324664547584097e-06</v>
+        <v>2.327383355035272e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.13333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2134681.699640249</v>
+        <v>2232700.174492715</v>
       </c>
     </row>
     <row r="5">
@@ -24859,28 +24859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1522.834419273344</v>
+        <v>1601.945634834251</v>
       </c>
       <c r="AB5" t="n">
-        <v>2083.60923516285</v>
+        <v>2191.852690433791</v>
       </c>
       <c r="AC5" t="n">
-        <v>1884.752494122835</v>
+        <v>1982.665345943362</v>
       </c>
       <c r="AD5" t="n">
-        <v>1522834.419273344</v>
+        <v>1601945.634834251</v>
       </c>
       <c r="AE5" t="n">
-        <v>2083609.23516285</v>
+        <v>2191852.690433791</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.39913749926614e-06</v>
+        <v>2.458229393348324e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.27361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1884752.494122835</v>
+        <v>1982665.345943362</v>
       </c>
     </row>
     <row r="6">
@@ -24965,28 +24965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1371.296713563905</v>
+        <v>1450.493180470832</v>
       </c>
       <c r="AB6" t="n">
-        <v>1876.268660839449</v>
+        <v>1984.62876076304</v>
       </c>
       <c r="AC6" t="n">
-        <v>1697.200213208537</v>
+        <v>1795.218577279775</v>
       </c>
       <c r="AD6" t="n">
-        <v>1371296.713563905</v>
+        <v>1450493.180470832</v>
       </c>
       <c r="AE6" t="n">
-        <v>1876268.660839449</v>
+        <v>1984628.76076304</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.44822194469294e-06</v>
+        <v>2.544468827691018e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.75555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>1697200.213208537</v>
+        <v>1795218.577279775</v>
       </c>
     </row>
     <row r="7">
@@ -25071,28 +25071,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1339.009966867073</v>
+        <v>1418.206433774</v>
       </c>
       <c r="AB7" t="n">
-        <v>1832.092509618107</v>
+        <v>1940.452609541698</v>
       </c>
       <c r="AC7" t="n">
-        <v>1657.240171858142</v>
+        <v>1755.25853592938</v>
       </c>
       <c r="AD7" t="n">
-        <v>1339009.966867073</v>
+        <v>1418206.433774</v>
       </c>
       <c r="AE7" t="n">
-        <v>1832092.509618107</v>
+        <v>1940452.609541698</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.457761868255516e-06</v>
+        <v>2.561230097061699e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.65972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1657240.171858142</v>
+        <v>1755258.53592938</v>
       </c>
     </row>
     <row r="8">
@@ -25177,28 +25177,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1343.56368230693</v>
+        <v>1422.760149213857</v>
       </c>
       <c r="AB8" t="n">
-        <v>1838.323103978667</v>
+        <v>1946.683203902258</v>
       </c>
       <c r="AC8" t="n">
-        <v>1662.876127037624</v>
+        <v>1760.894491108862</v>
       </c>
       <c r="AD8" t="n">
-        <v>1343563.68230693</v>
+        <v>1422760.149213857</v>
       </c>
       <c r="AE8" t="n">
-        <v>1838323.103978667</v>
+        <v>1946683.203902258</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.459300565604319e-06</v>
+        <v>2.563933527605357e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.64444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>1662876.127037624</v>
+        <v>1760894.491108862</v>
       </c>
     </row>
   </sheetData>
@@ -25474,28 +25474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7344.249732508531</v>
+        <v>7528.636121356847</v>
       </c>
       <c r="AB2" t="n">
-        <v>10048.72648944979</v>
+        <v>10301.01208122544</v>
       </c>
       <c r="AC2" t="n">
-        <v>9089.690136772528</v>
+        <v>9317.897945754152</v>
       </c>
       <c r="AD2" t="n">
-        <v>7344249.732508531</v>
+        <v>7528636.121356847</v>
       </c>
       <c r="AE2" t="n">
-        <v>10048726.48944979</v>
+        <v>10301012.08122544</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.997674114782726e-07</v>
+        <v>1.025535434110755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.33888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>9089690.136772528</v>
+        <v>9317897.945754152</v>
       </c>
     </row>
     <row r="3">
@@ -25580,28 +25580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2793.80650337919</v>
+        <v>2896.385571103346</v>
       </c>
       <c r="AB3" t="n">
-        <v>3822.609311967722</v>
+        <v>3962.962517896995</v>
       </c>
       <c r="AC3" t="n">
-        <v>3457.784844299243</v>
+        <v>3584.742937241583</v>
       </c>
       <c r="AD3" t="n">
-        <v>2793806.50337919</v>
+        <v>2896385.571103346</v>
       </c>
       <c r="AE3" t="n">
-        <v>3822609.311967722</v>
+        <v>3962962.517896995</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042364623656924e-06</v>
+        <v>1.782327342842672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.75555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>3457784.844299243</v>
+        <v>3584742.937241583</v>
       </c>
     </row>
     <row r="4">
@@ -25686,28 +25686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2178.989029145075</v>
+        <v>2261.052372832953</v>
       </c>
       <c r="AB4" t="n">
-        <v>2981.388919887727</v>
+        <v>3093.671607100869</v>
       </c>
       <c r="AC4" t="n">
-        <v>2696.849345779272</v>
+        <v>2798.415930914417</v>
       </c>
       <c r="AD4" t="n">
-        <v>2178989.029145075</v>
+        <v>2261052.372832953</v>
       </c>
       <c r="AE4" t="n">
-        <v>2981388.919887727</v>
+        <v>3093671.607100869</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.203241667279649e-06</v>
+        <v>2.057409158914407e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.11527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2696849.345779272</v>
+        <v>2798415.930914416</v>
       </c>
     </row>
     <row r="5">
@@ -25792,28 +25792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1906.063042782323</v>
+        <v>1998.213522024919</v>
       </c>
       <c r="AB5" t="n">
-        <v>2607.959544701478</v>
+        <v>2734.043895793422</v>
       </c>
       <c r="AC5" t="n">
-        <v>2359.059546049377</v>
+        <v>2473.110583633605</v>
       </c>
       <c r="AD5" t="n">
-        <v>1906063.042782323</v>
+        <v>1998213.522024919</v>
       </c>
       <c r="AE5" t="n">
-        <v>2607959.544701478</v>
+        <v>2734043.895793422</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.287757717846427e-06</v>
+        <v>2.201922186712462e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.99166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2359059.546049377</v>
+        <v>2473110.583633604</v>
       </c>
     </row>
     <row r="6">
@@ -25898,28 +25898,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1748.759911499161</v>
+        <v>1830.652573477893</v>
       </c>
       <c r="AB6" t="n">
-        <v>2392.730460755485</v>
+        <v>2504.779613724051</v>
       </c>
       <c r="AC6" t="n">
-        <v>2164.371623799274</v>
+        <v>2265.726962870494</v>
       </c>
       <c r="AD6" t="n">
-        <v>1748759.911499161</v>
+        <v>1830652.573477893</v>
       </c>
       <c r="AE6" t="n">
-        <v>2392730.460755485</v>
+        <v>2504779.613724051</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.342174192509598e-06</v>
+        <v>2.294968294084192e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.34305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>2164371.623799274</v>
+        <v>2265726.962870494</v>
       </c>
     </row>
     <row r="7">
@@ -26004,28 +26004,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1625.157723205667</v>
+        <v>1707.13563653042</v>
       </c>
       <c r="AB7" t="n">
-        <v>2223.612493788628</v>
+        <v>2335.778291409843</v>
       </c>
       <c r="AC7" t="n">
-        <v>2011.394038241177</v>
+        <v>2112.854889563109</v>
       </c>
       <c r="AD7" t="n">
-        <v>1625157.723205667</v>
+        <v>1707135.63653042</v>
       </c>
       <c r="AE7" t="n">
-        <v>2223612.493788628</v>
+        <v>2335778.291409843</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.379242635740641e-06</v>
+        <v>2.358351201013163e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.93194444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>2011394.038241177</v>
+        <v>2112854.889563109</v>
       </c>
     </row>
     <row r="8">
@@ -26110,28 +26110,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1533.037780352649</v>
+        <v>1615.015693677402</v>
       </c>
       <c r="AB8" t="n">
-        <v>2097.569923932077</v>
+        <v>2209.735721553292</v>
       </c>
       <c r="AC8" t="n">
-        <v>1897.380794349877</v>
+        <v>1998.841645671809</v>
       </c>
       <c r="AD8" t="n">
-        <v>1533037.780352649</v>
+        <v>1615015.693677402</v>
       </c>
       <c r="AE8" t="n">
-        <v>2097569.923932076</v>
+        <v>2209735.721553292</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.405783641094067e-06</v>
+        <v>2.403733362374306e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.65</v>
       </c>
       <c r="AH8" t="n">
-        <v>1897380.794349877</v>
+        <v>1998841.645671809</v>
       </c>
     </row>
     <row r="9">
@@ -26216,28 +26216,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1468.079852633413</v>
+        <v>1539.799948694302</v>
       </c>
       <c r="AB9" t="n">
-        <v>2008.691621485101</v>
+        <v>2106.822220982938</v>
       </c>
       <c r="AC9" t="n">
-        <v>1816.98491234696</v>
+        <v>1905.750065155884</v>
       </c>
       <c r="AD9" t="n">
-        <v>1468079.852633413</v>
+        <v>1539799.948694302</v>
       </c>
       <c r="AE9" t="n">
-        <v>2008691.621485101</v>
+        <v>2106822.220982938</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.422093756115726e-06</v>
+        <v>2.431621841423053e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.48055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1816984.91234696</v>
+        <v>1905750.065155884</v>
       </c>
     </row>
     <row r="10">
@@ -26322,28 +26322,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1472.266354927098</v>
+        <v>1543.986450987987</v>
       </c>
       <c r="AB10" t="n">
-        <v>2014.419778618767</v>
+        <v>2112.550378116604</v>
       </c>
       <c r="AC10" t="n">
-        <v>1822.166382203307</v>
+        <v>1910.931535012233</v>
       </c>
       <c r="AD10" t="n">
-        <v>1472266.354927098</v>
+        <v>1543986.450987987</v>
       </c>
       <c r="AE10" t="n">
-        <v>2014419.778618767</v>
+        <v>2112550.378116604</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.422093756115726e-06</v>
+        <v>2.431621841423053e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.48055555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>1822166.382203307</v>
+        <v>1910931.535012233</v>
       </c>
     </row>
   </sheetData>
@@ -26619,28 +26619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>961.3882209378194</v>
+        <v>1042.767505605292</v>
       </c>
       <c r="AB2" t="n">
-        <v>1315.413777342041</v>
+        <v>1426.760504824733</v>
       </c>
       <c r="AC2" t="n">
-        <v>1189.872532627348</v>
+        <v>1290.592484715205</v>
       </c>
       <c r="AD2" t="n">
-        <v>961388.2209378193</v>
+        <v>1042767.505605292</v>
       </c>
       <c r="AE2" t="n">
-        <v>1315413.777342041</v>
+        <v>1426760.504824733</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.338996431672356e-06</v>
+        <v>2.870086082058162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.7625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1189872.532627348</v>
+        <v>1290592.484715205</v>
       </c>
     </row>
   </sheetData>
@@ -26916,28 +26916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2403.250257668655</v>
+        <v>2506.240349193937</v>
       </c>
       <c r="AB2" t="n">
-        <v>3288.233026461018</v>
+        <v>3429.148613288084</v>
       </c>
       <c r="AC2" t="n">
-        <v>2974.408681479493</v>
+        <v>3101.875482476045</v>
       </c>
       <c r="AD2" t="n">
-        <v>2403250.257668655</v>
+        <v>2506240.349193937</v>
       </c>
       <c r="AE2" t="n">
-        <v>3288233.026461018</v>
+        <v>3429148.613288084</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060631841571594e-06</v>
+        <v>1.954142612678805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.38333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2974408.681479493</v>
+        <v>3101875.482476045</v>
       </c>
     </row>
     <row r="3">
@@ -27022,28 +27022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1415.344141144535</v>
+        <v>1490.284841599149</v>
       </c>
       <c r="AB3" t="n">
-        <v>1936.536294490625</v>
+        <v>2039.073467002997</v>
       </c>
       <c r="AC3" t="n">
-        <v>1751.715988490199</v>
+        <v>1844.467157169815</v>
       </c>
       <c r="AD3" t="n">
-        <v>1415344.141144535</v>
+        <v>1490284.841599149</v>
       </c>
       <c r="AE3" t="n">
-        <v>1936536.294490625</v>
+        <v>2039073.467002997</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.398009114040711e-06</v>
+        <v>2.575737476080561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.22222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1751715.988490199</v>
+        <v>1844467.157169815</v>
       </c>
     </row>
     <row r="4">
@@ -27128,28 +27128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1179.025560734449</v>
+        <v>1244.673358068556</v>
       </c>
       <c r="AB4" t="n">
-        <v>1613.194787133583</v>
+        <v>1703.016999622524</v>
       </c>
       <c r="AC4" t="n">
-        <v>1459.233740782657</v>
+        <v>1540.483447377921</v>
       </c>
       <c r="AD4" t="n">
-        <v>1179025.560734449</v>
+        <v>1244673.358068556</v>
       </c>
       <c r="AE4" t="n">
-        <v>1613194.787133583</v>
+        <v>1703016.999622524</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.503010849857575e-06</v>
+        <v>2.769196090391951e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.09027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1459233.740782657</v>
+        <v>1540483.447377921</v>
       </c>
     </row>
     <row r="5">
@@ -27234,28 +27234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1182.385435735131</v>
+        <v>1248.033233069238</v>
       </c>
       <c r="AB5" t="n">
-        <v>1617.791916336739</v>
+        <v>1707.614128825681</v>
       </c>
       <c r="AC5" t="n">
-        <v>1463.392126426776</v>
+        <v>1544.641833022039</v>
       </c>
       <c r="AD5" t="n">
-        <v>1182385.435735131</v>
+        <v>1248033.233069238</v>
       </c>
       <c r="AE5" t="n">
-        <v>1617791.916336739</v>
+        <v>1707614.128825681</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.504970446793505e-06</v>
+        <v>2.772806515542397e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.07083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1463392.126426775</v>
+        <v>1544641.833022039</v>
       </c>
     </row>
   </sheetData>
@@ -27531,28 +27531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3523.478391722264</v>
+        <v>3649.671985999423</v>
       </c>
       <c r="AB2" t="n">
-        <v>4820.978580450569</v>
+        <v>4993.642223409051</v>
       </c>
       <c r="AC2" t="n">
-        <v>4360.871151018118</v>
+        <v>4517.05601822758</v>
       </c>
       <c r="AD2" t="n">
-        <v>3523478.391722264</v>
+        <v>3649671.985999423</v>
       </c>
       <c r="AE2" t="n">
-        <v>4820978.580450569</v>
+        <v>4993642.22340905</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.806040723220752e-07</v>
+        <v>1.573134910232322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.79583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4360871.151018118</v>
+        <v>4517056.01822758</v>
       </c>
     </row>
     <row r="3">
@@ -27637,28 +27637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1851.764709574931</v>
+        <v>1939.01799554246</v>
       </c>
       <c r="AB3" t="n">
-        <v>2533.666169733727</v>
+        <v>2653.049964937804</v>
       </c>
       <c r="AC3" t="n">
-        <v>2291.856626517143</v>
+        <v>2399.846599863151</v>
       </c>
       <c r="AD3" t="n">
-        <v>1851764.709574931</v>
+        <v>1939017.99554246</v>
       </c>
       <c r="AE3" t="n">
-        <v>2533666.169733727</v>
+        <v>2653049.964937804</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.258410104421691e-06</v>
+        <v>2.248057814943672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.35138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2291856.626517143</v>
+        <v>2399846.599863152</v>
       </c>
     </row>
     <row r="4">
@@ -27743,28 +27743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1498.572288666753</v>
+        <v>1576.282402593972</v>
       </c>
       <c r="AB4" t="n">
-        <v>2050.412717697252</v>
+        <v>2156.73912390074</v>
       </c>
       <c r="AC4" t="n">
-        <v>1854.724205692549</v>
+        <v>1950.902968918024</v>
       </c>
       <c r="AD4" t="n">
-        <v>1498572.288666753</v>
+        <v>1576282.402593972</v>
       </c>
       <c r="AE4" t="n">
-        <v>2050412.717697252</v>
+        <v>2156739.12390074</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.392992694299873e-06</v>
+        <v>2.488479790155039e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.67638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1854724.205692549</v>
+        <v>1950902.968918025</v>
       </c>
     </row>
     <row r="5">
@@ -27849,28 +27849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1307.308316016218</v>
+        <v>1384.933089088865</v>
       </c>
       <c r="AB5" t="n">
-        <v>1788.716912345838</v>
+        <v>1894.926551427129</v>
       </c>
       <c r="AC5" t="n">
-        <v>1618.004280711505</v>
+        <v>1714.077420905042</v>
       </c>
       <c r="AD5" t="n">
-        <v>1307308.316016217</v>
+        <v>1384933.089088865</v>
       </c>
       <c r="AE5" t="n">
-        <v>1788716.912345839</v>
+        <v>1894926.551427129</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.464214555532135e-06</v>
+        <v>2.615712447597504e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.9125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1618004.280711505</v>
+        <v>1714077.420905042</v>
       </c>
     </row>
     <row r="6">
@@ -27955,28 +27955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1270.603965268194</v>
+        <v>1348.228738340842</v>
       </c>
       <c r="AB6" t="n">
-        <v>1738.496400370721</v>
+        <v>1844.706039452012</v>
       </c>
       <c r="AC6" t="n">
-        <v>1572.576743914361</v>
+        <v>1668.649884107899</v>
       </c>
       <c r="AD6" t="n">
-        <v>1270603.965268194</v>
+        <v>1348228.738340842</v>
       </c>
       <c r="AE6" t="n">
-        <v>1738496.400370721</v>
+        <v>1844706.039452012</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.478836262142731e-06</v>
+        <v>2.641833059390328e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.76527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1572576.743914361</v>
+        <v>1668649.884107898</v>
       </c>
     </row>
     <row r="7">
@@ -28061,28 +28061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1278.074962572023</v>
+        <v>1355.699735644671</v>
       </c>
       <c r="AB7" t="n">
-        <v>1748.71854847896</v>
+        <v>1854.92818756025</v>
       </c>
       <c r="AC7" t="n">
-        <v>1581.823304554025</v>
+        <v>1677.896444747562</v>
       </c>
       <c r="AD7" t="n">
-        <v>1278074.962572023</v>
+        <v>1355699.735644671</v>
       </c>
       <c r="AE7" t="n">
-        <v>1748718.54847896</v>
+        <v>1854928.18756025</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478836262142731e-06</v>
+        <v>2.641833059390328e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.76527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1581823.304554025</v>
+        <v>1677896.444747562</v>
       </c>
     </row>
   </sheetData>
